--- a/충주음식점.xlsx
+++ b/충주음식점.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,28 +491,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>중앙탑뚱감자막국수</t>
+          <t>무궁화식당</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>막국수</t>
+          <t>국밥</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>막국수와 메밀치킨의 절묘한 맛</t>
+          <t>100년 전통아바이순대&amp;감자탕</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>별점
-4.1</t>
+          <t>별점 없음</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>리뷰 999+</t>
+          <t>리뷰 287</t>
         </is>
       </c>
     </row>
@@ -729,7 +728,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>리뷰 483</t>
+          <t>리뷰 484</t>
         </is>
       </c>
     </row>
@@ -1065,17 +1064,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>무궁화식당</t>
+          <t>낭만가든 본점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>국밥</t>
+          <t>돼지고기구이</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>100년 전통아바이순대&amp;감자탕</t>
+          <t>태어나서 꼭 먹어봐야할 맛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1085,24 +1084,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>리뷰 287</t>
+          <t>리뷰 448</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>낭만가든 본점</t>
+          <t>대성수산횟집</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>돼지고기구이</t>
+          <t>대게요리</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>충주에만 있는 별난 고깃집</t>
+          <t>대게 좋아? 바로 이 집에서!</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1112,7 +1111,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>리뷰 448</t>
+          <t>리뷰 120</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1138,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>리뷰 280</t>
+          <t>리뷰 281</t>
         </is>
       </c>
     </row>
@@ -1476,12 +1475,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>남산제면소 충주본점</t>
+          <t>231카페</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1496,19 +1495,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>리뷰 753</t>
+          <t>리뷰 103</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>모르겐</t>
+          <t>중앙탑초가집</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1523,19 +1522,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>리뷰 999+</t>
+          <t>리뷰 807</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>듀레베이커리 호암점</t>
+          <t>남산제면소 충주본점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>베이커리</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1545,20 +1544,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>별점
-4.39</t>
+          <t>별점 없음</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>리뷰 999+</t>
+          <t>리뷰 753</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>231카페</t>
+          <t>모르겐</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1578,19 +1576,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>리뷰 102</t>
+          <t>리뷰 999+</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>진원소우 충주호암점</t>
+          <t>듀레베이커리 호암점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>소고기구이</t>
+          <t>베이커리</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1601,7 +1599,7 @@
       <c r="D43" t="inlineStr">
         <is>
           <t>별점
-4.29</t>
+4.39</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1613,12 +1611,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>중앙탑초가집</t>
+          <t>진원소우 충주호암점</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>소고기구이</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1628,12 +1626,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>별점 없음</t>
+          <t>별점
+4.29</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>리뷰 806</t>
+          <t>리뷰 999+</t>
         </is>
       </c>
     </row>
@@ -1668,17 +1667,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>대성수산횟집</t>
+          <t>중앙탑초가집</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>대게요리</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>대게 좋아? 바로 이 집에서!</t>
+          <t>담백한 맛과 담백한 인테리어!</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1688,24 +1687,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>리뷰 120</t>
+          <t>리뷰 806</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>중앙탑초가집</t>
+          <t>도장골한우삼겹</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>육류,고기요리</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>블루리본서베이 리본2개 인증</t>
+          <t>호암동 1++한우/전골 맛집!</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1715,7 +1714,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>리뷰 806</t>
+          <t>리뷰 232</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1776,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>촌집돌판삼겹살</t>
+          <t>꼬보</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>퓨전음식</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1797,19 +1796,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>리뷰 133</t>
+          <t>리뷰 598</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>청진궁중면옥 충주본점</t>
+          <t>촌집돌판삼겹살</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>냉면</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1819,25 +1818,24 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>별점
-4.78</t>
+          <t>별점 없음</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>리뷰 999+</t>
+          <t>리뷰 133</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>꼬보</t>
+          <t>청진궁중면옥 충주본점</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>퓨전음식</t>
+          <t>냉면</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1847,12 +1845,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>별점 없음</t>
+          <t>별점
+4.78</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>리뷰 598</t>
+          <t>리뷰 999+</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1885,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>써브웨이 충주호암DT점</t>
+          <t>그집쭈꾸미 칠금점</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>샌드위치</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1906,19 +1905,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>리뷰 409</t>
+          <t>리뷰 30</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>그집쭈꾸미 칠금점</t>
+          <t>써브웨이 충주호암DT점</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>샌드위치</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1933,7 +1932,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>리뷰 30</t>
+          <t>리뷰 409</t>
         </is>
       </c>
     </row>
@@ -1995,12 +1994,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>개수리막국수 충주점</t>
+          <t>육삼월 충주본점</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>막국수</t>
+          <t>육류,고기요리</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2015,19 +2014,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>리뷰 407</t>
+          <t>리뷰 571</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>강금자손수제비 충주본점</t>
+          <t>개수리막국수 충주점</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>한식</t>
+          <t>막국수</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2037,25 +2036,24 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>별점
-4.77</t>
+          <t>별점 없음</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>리뷰 643</t>
+          <t>리뷰 407</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>호슬로 정원</t>
+          <t>강금자손수제비 충주본점</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>카페,디저트</t>
+          <t>한식</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2065,24 +2063,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>별점 없음</t>
+          <t>별점
+4.77</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>리뷰 999+</t>
+          <t>리뷰 643</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>태태주</t>
+          <t>호슬로 정원</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>카페,디저트</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2097,19 +2096,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>리뷰 64</t>
+          <t>리뷰 999+</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>일번지순대국</t>
+          <t>태태주</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>순대,순댓국</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2119,25 +2118,24 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>별점
-4.39</t>
+          <t>별점 없음</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>리뷰 999+</t>
+          <t>리뷰 64</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>육삼월 충주본점</t>
+          <t>일번지순대국</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>육류,고기요리</t>
+          <t>순대,순댓국</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2147,12 +2145,13 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>별점 없음</t>
+          <t>별점
+4.39</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>리뷰 571</t>
+          <t>리뷰 999+</t>
         </is>
       </c>
     </row>
@@ -2537,6 +2536,6494 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>더맛있는족발보쌈 연수점</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>족발,보쌈</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>요즘 가장 핫한 족발 맛집</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>리뷰 780</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>명품갈비찜 충주점</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>교현동에서 칠금동으로 확장이전</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>리뷰 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>중앙탑면막국수</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>막국수</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>별점
+4.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>노랑김밥</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>리뷰 492</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>진구이냉삶집</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>리뷰 798</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>아리랑숯불갈비전문점</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>별점
+4.31</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>메밀마당 중앙탑본점</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>막국수</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>별점
+4.44</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>카페호암지</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>리뷰 55</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>이름난순대의신 본점</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>순대,순댓국</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>리뷰 808</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>정가네명태 충주본점</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>해물,생선요리</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>별점
+4.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>리뷰 543</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>혼다라멘 충주용산점</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>일본식라면</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>별점
+4.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>리뷰 736</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>옹골명가 옹심이와 칼국수</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>리뷰 497</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>충주홍두깨칼국수보쌈 원조본점</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>별점
+4.48</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>도축장인 서충주점</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>별점
+4.48</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>춘천호반닭갈비 기업도시점</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>닭갈비</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>리뷰 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>도장골한우삼겹</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>리뷰 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>열혈청춘 충주본점</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>별점
+4.49</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>구옥,날다</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>선비칼국수 충주호암점</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>리뷰 64</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>원조중원탑막국수 충주단월점</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>막국수</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>별점
+4.37</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>신양자강</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>별점
+4.38</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>카츠집</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>별점
+4.82</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>리뷰 825</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>투파인드피터 충주연수점</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>이탈리아음식</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>충주 파스타 맛집</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>전주식당</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>수안보 맛집 꿩요리 꿩샤브샤브</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>별점
+4.22</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>리뷰 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>착한국밥</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>국밥</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>별점
+4.82</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>우하하</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>별점
+4.55</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>리뷰 450</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>터줏골명가</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>청년고기장수 충주 연수점</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>돼지고기구이</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>별점
+4.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>리뷰 388</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>이씨식당 충주점</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>별점
+4.42</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1957정원카페</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>별점
+4.8</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>리뷰 74</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>비스트로메구</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>리뷰 372</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>다락안</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>별점
+4.6</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>리뷰 352</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>현아네만두</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>만두</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>리뷰 937</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>옹기장터</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>별점
+4.45</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>리뷰 534</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>소도둑한우전문점</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>별점
+4.52</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>리뷰 154</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>힐링채</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>닭갈비</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>리뷰 187</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>맥도날드 충주교현DT점</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>햄버거</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>별점
+4.36</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>해탄 충주연수점</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>리뷰 531</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>포석정</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>별점
+4.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>리뷰 896</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>탄금한우곱창</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>리뷰 94</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>대성야채만두</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>만두</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>별점
+4.33</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>중앙관</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>별점
+4.13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>리뷰 915</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>낭만장사꾼 계명산호랭이</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>이탈리아음식</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>쿠니소바 충주본점</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>일본식라면</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>리뷰 336</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>오성회관 연수동</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>오리요리</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>대형 철판 오리구가 코스로</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>리뷰 101</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>부연오리</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>오리요리</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>철판구이 전문점</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>리뷰 238</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>더화로</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>리뷰 115</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>뺑덕산더미오리 안림점</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>오리요리</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>리뷰 257</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>커피단월</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>낮과밤</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>별점
+4.56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>리뷰 914</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>청인</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>별점
+4.42</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>치히로 충주점</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>일식당</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>유메식당</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>리뷰 526</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>함경옥사과냉면만두 본점</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>냉면</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>별점
+4.42</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>맘스터치 칠금점</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>햄버거</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>별점
+4.46</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>늘해랑</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>별점
+4.24</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>리뷰 342</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>스타벅스 충주교현DT점</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>둥이네왕만두</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>만두</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>리뷰 217</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>모담보리밥</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>리뷰 470</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>명륜진사갈비 서충주기업도시점</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>리뷰 517</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>더맛있는족발보쌈 연수점</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>족발,보쌈</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>리뷰 780</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>다담뜰한식뷔페 충주점</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>한식뷔페</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>별점
+4.36</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>외갓집</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>리뷰 453</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>갯벌의조개 충주호암점</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>조개요리</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>리뷰 797</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>포실다이닝 본점</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>리뷰 418</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>충주농협 탄금한우타운</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>별점
+4.36</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>달래강72</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>별점
+4.43</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>리뷰 534</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>동충주솥밥해장국</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>해장국</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>별점
+4.48</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>리뷰 398</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>스타벅스 충주터미널점</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>별점
+4.52</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>타임</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>별점
+4.56</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>리뷰 919</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>호숫가애</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>해물,생선요리</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>별점
+4.27</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>리뷰 871</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>어식당</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>산골숯불화로구이</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>돼지고기구이</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>별점
+4.19</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>리뷰 499</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>중앙탑 아트리움12카페</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>리뷰 432</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>버거킹 충주호암점</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>햄버거</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>이도희한우생갈비 충주본점</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>별점
+4.45</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>사실빙 충주호암점</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>리뷰 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>굿충주한우</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>별점
+4.35</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>리뷰 194</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>원조영덕가든</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>별점
+4.24</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>리뷰 410</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>신동화식당</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>별점
+4.59</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>리뷰 231</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>규카츠정 충주연수점</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>일식당</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>리뷰 571</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>본가할매숨두부 꿩요리</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>두부요리</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>별점
+4.42</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>덕수파스타 충주연수</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>우리집</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>한정식</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>리뷰 225</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>다래떡볶이</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>떡볶이</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>별점
+4.51</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>리뷰 940</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>관아골 하이라이트</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>카페</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>리뷰 151</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>조동소바</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>리뷰 174</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>좋은아침페스츄리 충주점</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Cafe남산422</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>리뷰 217</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>봉방쫄면</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>리뷰 287</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>포유탐 본점</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>베트남음식</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>별점
+4.55</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>리뷰 925</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>무드인소울</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>별점
+4.51</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>호수</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>리뷰 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>화덕생선 구이정</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>생선구이</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>리뷰 390</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>미친양꼬치</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>양꼬치</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>별점
+4.48</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>리뷰 590</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>수국여울</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>별점
+4.4</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>리뷰 104</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>아흐레커피</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>리뷰 582</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>중앙탑한우 서충주 본점</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>리뷰 241</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>알선생알탕전문점</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>해물,생선요리</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>리뷰 466</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>고향맛집</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>리뷰 239</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>호랑 충주본점</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>리뷰 95</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>샤브자연애충주점</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>샤브샤브</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>별점
+4.17</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>리뷰 699</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>메이플라워바베큐</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>별점
+4.87</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>유나의정원</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>리뷰 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>청평가든</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>별점
+4.17</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>리뷰 256</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>수달1985</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>리뷰 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>쭈불리 충주점</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>주꾸미요리</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>배쉐프의중화요리 목행동</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>별점
+4.57</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>리뷰 484</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>스마일만두</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>별점
+4.63</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>리뷰 894</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>이레담막국수 충주점</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>막국수</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>리뷰 729</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>호암황소곱창</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>곱창,막창,양</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>리뷰 571</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>이정동묵밥</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>별점
+4.4</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>리뷰 880</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>개성상황버섯삼계탕 충주점</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>백숙,삼계탕</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>리뷰 401</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>백소정 충주호암점</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>일식당</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>오복쌈밥</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>별점
+4.49</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>리뷰 496</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>깬닙</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>리뷰 94</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>고기박사냉면초계막국수 / 손수제비</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>냉면</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>별점
+4.29</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>소소한행복</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>리뷰 627</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>소복소복</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>일식당</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>리뷰 264</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>그린가든</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>별점
+4.4</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>리뷰 786</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>순복이네밥집본점</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>별점
+4.59</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>리뷰 139</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>홍자매 소곱창 서충주점</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>리뷰 262</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>한마음정육식당 충주호암점</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>리뷰 210</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>만선식당</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>별점
+4.52</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>리뷰 435</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>서유숙카페</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>리뷰 675</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>몽돌집</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>리뷰 319</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>진우동돈까스</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>별점
+4.53</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>리뷰 931</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>악어섬</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>비빔밥</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>리뷰 355</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>예조은추어탕</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>추어탕</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>리뷰 381</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>라라코스트 충주점</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>패밀리레스토랑</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>메밀면묵밥리 앙성온천점</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>별점
+4.48</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>리뷰 424</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>프렌치쪽갈비 칠금점</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>리뷰 267</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>노은삼거리식당</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>리뷰 165</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>민들레</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>별점
+4.33</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>소인애 낙지냉면</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>냉면</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>피자인</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>피자</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>별점
+4.55</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>리뷰 639</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>연수골</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>별점
+4.4</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>리뷰 412</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>그집솥밥갈비</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>갈비탕</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>별점
+4.27</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>리뷰 464</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>공아춘</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>리뷰 572</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>큰집아저씨 충주 본점</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>리뷰 723</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>숯도령대쪽갈비</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>별점
+4.4</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>리뷰 317</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>시내짬뽕</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>별점
+4.49</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>리뷰 601</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>자금성 본점</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>리뷰 398</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>수안보 명화식당 꿩요리</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>별점
+4.2</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>일품대패</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>리뷰 161</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>수영식당</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>별점
+4.24</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>리뷰 365</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>열명의농부 채식당</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>한식뷔페</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>별점
+4.43</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>리뷰 469</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>황금코다리 충주연수점</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>해물,생선요리</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>별점
+4.39</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>리뷰 955</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>함지박</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>오리요리</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>별점
+4.44</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>리뷰 610</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>샵도쿄시장 충주신연수점</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>리뷰 67</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>만복이쭈꾸미낙지볶음 충주점</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>주꾸미요리</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>별점
+4.83</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>팔팔풍천민물장어</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>장어,먹장어요리</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>리뷰 500</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>박가부대 충주시청점</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>찌개,전골</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>리뷰 61</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>수가성식당</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>두부요리</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>별점
+4.35</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>리뷰 492</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>꼼돼지</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>리뷰 126</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>원조초램양고기꼬치</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>양꼬치</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>별점
+4.56</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>리뷰 417</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>오호담</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>추어탕</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>리뷰 217</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>까사피에스타 충주점</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>리뷰 611</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>명산가든</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>한정식</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>별점
+4.41</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>리뷰 479</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>라운디</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>리뷰 298</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>마루 충주본점</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>리뷰 248</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>간판없는삼겹살</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>돼지고기구이</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>리뷰 411</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>락빈칼국수</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>리뷰 277</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>준경양카츠</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>남한강올갱이국</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>별점
+4.45</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>리뷰 285</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>비건채식뷔페 빛가람</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>채식,샐러드뷔페</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>리뷰 592</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>시골밥상</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>리뷰 578</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>다온수라</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>한식뷔페</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>리뷰 188</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>뜨돈 충주연수점</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>리뷰 747</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>화로집</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>리뷰 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>평화루</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>별점
+4.41</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>리뷰 603</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>행복담는국수집</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>국수</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>별점
+4.41</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>리뷰 873</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>향나무식당</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>한정식</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>별점
+4.21</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>호랑이포차</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>리뷰 61</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>오모이데요코초</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>별점
+4.57</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>리뷰 265</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>회사가는날</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>리뷰 44</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>감자서리</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>별점
+4.46</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>리뷰 882</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>엠브로돈까스 충주시청점</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>리뷰 403</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>소확행피자 충주점</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>피자</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>리뷰 262</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>김작가야 충주신연수점</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>리뷰 125</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>더맛있는족발보쌈 충주용산점</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>족발,보쌈</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>리뷰 137</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>연원숯불갈비</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>별점
+5</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>리뷰 248</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>라즈베리케이크</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>리뷰 614</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>갓플레이스 충주</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>스파게티,파스타전문</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>리뷰 710</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>우리곤드레밥청국장</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>별점
+4.28</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>리뷰 436</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>고추장송어</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>별점
+4.47</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>리뷰 850</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>후라토식당 충주점</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>일식당</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>별점
+4.68</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>화덕에빠진생선</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>리뷰 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>동구밖과수원길</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>별점
+4.43</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>리뷰 941</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>쌍용반점</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>중식당</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>별점
+4.23</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>리뷰 246</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>운정식당</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>별점
+4.34</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>리뷰 443</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>세상상회</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>별점
+4.66</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>편편집 연수점</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>샤브샤브</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>리뷰 770</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>들림횟집</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>별점
+4.43</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>리뷰 595</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>수비네빵</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>베이커리</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>리뷰 137</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>소소한 숯불갈비 충주본점</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>리뷰 344</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>생극해장국 서충주점</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>해장국</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>리뷰 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>빨간사과</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>별점
+4.66</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>리뷰 969</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>삼정면옥</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>냉면</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>별점
+4.13</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>리뷰 859</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>토담20</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>국밥</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>별점
+4.17</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>리뷰 321</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>수가성 서충주점</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>백반,가정식</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>별점
+4.17</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>리뷰 591</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>산장삼겹 충주점</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>리뷰 46</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>만나면</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>냉면</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>리뷰 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>대전얼큰한칼국수</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>별점
+4.32</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>리뷰 359</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>산수갑산</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>백반,가정식</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>별점
+4.45</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>리뷰 304</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>전주집 충주호암점</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>해장국</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>리뷰 179</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>튀겨튀겨</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>종합분식</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>리뷰 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>청년양고기 연수점</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>리뷰 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>오름카페</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>리뷰 677</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>백송화로</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>별점
+4.4</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>리뷰 313</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>등촌샤브칼국수 충주연수점</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>리뷰 620</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>라멘 하나시</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>일본식라면</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>리뷰 425</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>양순이네</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>별점
+4.44</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>리뷰 760</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>장수촌</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>별점
+4.36</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>카페능소화</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>최가네칼국수</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>칼국수,만두</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>별점
+4.39</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>리뷰 668</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>감나무집</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>별점
+4.77</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>리뷰 502</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>홍익돈까스 충주점</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>돈가스</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>별점
+4.43</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>조리터명가</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>생선회</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>별점
+4.44</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>리뷰 532</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>째즈와산조</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>별점
+4.71</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>리뷰 526</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>달마설렁탕숯불갈비연수점</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>곰탕,설렁탕</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>별점
+4.26</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>리뷰 819</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>라멘마루 서충주점</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>일본식라면</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>리뷰 499</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>유선분식</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>종합분식</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>별점
+4.22</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>리뷰 604</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>고향막창</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>곱창,막창,양</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>별점
+4.65</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>리뷰 172</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>롯데리아 충주연수점</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>햄버거</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>별점
+4.33</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>리뷰 856</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>도축장인 호암점</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>리뷰 491</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>탄금대왕갈비탕</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>갈비탕</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>별점
+4.35</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>중원순대</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>순대,순댓국</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>별점
+4.22</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>서초곰탕 충주 대영점</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>리뷰 164</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>이땅애우리한우 서충주점</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>소고기구이</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>별점
+4.56</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>리뷰 366</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>청솔식당</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>한식</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>별점
+4.36</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>리뷰 356</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>배스킨라빈스 충주국원(신연수동)점</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>아이스크림</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>별점
+4.36</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>리뷰 999+</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>금상첨계숯불닭갈비</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>닭갈비</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>별점 없음</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>리뷰 129</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>안스게장 충주대박점</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>게요리</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>별점
+4.63</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>리뷰 311</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>계란김밥</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>종합분식</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>별점
+4.38</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>리뷰 840</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>로라의정원</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>양식</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>설명 없음</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>별점
+4.71</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>리뷰 350</t>
         </is>
       </c>
     </row>
